--- a/Testcase Live Project__UnitTest_v2.xlsx
+++ b/Testcase Live Project__UnitTest_v2.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doanthithuy/Documents/Live Poroject Guru99/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3C2AC-C8D4-4240-857D-D909E026D1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Changelog" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="New Customer" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Edit Customer" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Copy of Edit Customer" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="New Account" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Edit Account" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="Delete Account" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="Delete Customer" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="Mini Statement" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="Customize Statement" sheetId="10" r:id="rId12"/>
-    <sheet state="hidden" name="FundTransfer" sheetId="11" r:id="rId13"/>
-    <sheet state="hidden" name="BalenceEnquiry" sheetId="12" r:id="rId14"/>
-    <sheet state="hidden" name="Inter Bank Fund  Transfer" sheetId="13" r:id="rId15"/>
-    <sheet state="hidden" name="Change  password" sheetId="14" r:id="rId16"/>
+    <sheet name="Changelog" sheetId="1" r:id="rId1"/>
+    <sheet name="New Customer" sheetId="2" r:id="rId2"/>
+    <sheet name="Edit Customer" sheetId="3" r:id="rId3"/>
+    <sheet name="Copy of Edit Customer" sheetId="4" r:id="rId4"/>
+    <sheet name="New Account" sheetId="5" r:id="rId5"/>
+    <sheet name="Edit Account" sheetId="6" r:id="rId6"/>
+    <sheet name="Delete Account" sheetId="7" r:id="rId7"/>
+    <sheet name="Delete Customer" sheetId="8" r:id="rId8"/>
+    <sheet name="Mini Statement" sheetId="9" r:id="rId9"/>
+    <sheet name="Customize Statement" sheetId="10" r:id="rId10"/>
+    <sheet name="FundTransfer" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="BalenceEnquiry" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet name="Change  password" sheetId="14" state="hidden" r:id="rId14"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="320">
   <si>
     <t>NOTE: To enter your own test cases
 1) Go to File &gt; Make a Copy
@@ -43,16 +52,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Tom Rick</t>
-  </si>
-  <si>
-    <t>24/10/2013</t>
-  </si>
-  <si>
     <t>Initial Draft</t>
-  </si>
-  <si>
-    <t>15/11/2013</t>
   </si>
   <si>
     <t>Added Test Steps and Test Data</t>
@@ -1050,78 +1050,85 @@
   </si>
   <si>
     <t>An error message "Passwords not match " must be shown</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Thuý</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Droid Sans"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Droid Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Droid Sans"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Droid Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Verdana"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1167,16 +1174,30 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1191,282 +1212,512 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.13"/>
-    <col customWidth="1" min="2" max="2" width="14.38"/>
-    <col customWidth="1" min="3" max="3" width="16.25"/>
-    <col customWidth="1" min="4" max="4" width="15.13"/>
-    <col customWidth="1" min="5" max="5" width="27.25"/>
-    <col customWidth="1" min="6" max="20" width="15.13"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="6" max="20" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" ht="12.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1488,11 +1739,14 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" ht="12.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1509,7 +1763,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1531,7 +1785,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20" ht="12.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1553,7 +1807,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20" ht="12.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1575,7 +1829,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20" ht="12.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1597,18 +1851,18 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20" ht="12.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="1"/>
@@ -1627,21 +1881,21 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="48">
+        <v>44858</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1657,21 +1911,21 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5">
-        <v>1.1</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7"/>
+    <row r="9" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="48">
+        <v>44880</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1687,13 +1941,13 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7"/>
+    <row r="10" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1709,12 +1963,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:20" ht="12.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1731,12 +1985,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:20" ht="12.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1753,7 +2007,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:20" ht="12.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1775,7 +2029,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:20" ht="12.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1797,7 +2051,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:20" ht="12.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1819,7 +2073,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:20" ht="12.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1841,7 +2095,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:20" ht="12.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1863,7 +2117,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:20" ht="12.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1885,7 +2139,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:20" ht="12.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1907,7 +2161,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:20" ht="12.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1929,7 +2183,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:20" ht="12.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1951,7 +2205,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:20" ht="12.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1973,7 +2227,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:20" ht="12.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1995,7 +2249,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:20" ht="12.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2017,7 +2271,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:20" ht="12.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2039,7 +2293,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" ht="12.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2061,7 +2315,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:20" ht="12.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2083,7 +2337,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" ht="12.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2105,7 +2359,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:20" ht="12.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2127,7 +2381,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" ht="12.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2149,7 +2403,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:20" ht="12.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2171,7 +2425,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" ht="12.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2193,7 +2447,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" ht="12.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2215,7 +2469,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" ht="12.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2237,7 +2491,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" ht="12.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2259,7 +2513,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" ht="12.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2281,7 +2535,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" ht="12.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2303,7 +2557,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2325,7 +2579,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2347,7 +2601,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2369,7 +2623,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2391,7 +2645,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2413,7 +2667,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2435,7 +2689,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" ht="12.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2457,7 +2711,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" ht="12.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2479,7 +2733,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" ht="12.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2501,7 +2755,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" ht="12.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2523,7 +2777,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" ht="12.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2545,7 +2799,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" ht="12.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2567,7 +2821,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" ht="12.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2589,7 +2843,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" ht="12.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2611,7 +2865,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" ht="12.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2633,7 +2887,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" ht="12.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2655,7 +2909,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" ht="12.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2677,7 +2931,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" ht="12.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2699,7 +2953,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" ht="12.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2721,7 +2975,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" ht="12.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2743,7 +2997,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" ht="13">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2765,7 +3019,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" ht="13">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2787,7 +3041,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" ht="13">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2809,7 +3063,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" ht="13">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2831,7 +3085,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" ht="13">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2853,7 +3107,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" ht="13">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2875,7 +3129,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" ht="13">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2897,7 +3151,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" ht="13">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2919,7 +3173,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" ht="13">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2941,7 +3195,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" ht="13">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2963,7 +3217,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" ht="13">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2985,7 +3239,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" ht="13">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3007,7 +3261,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" ht="13">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3029,7 +3283,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" ht="13">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3051,7 +3305,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" ht="13">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3073,7 +3327,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" ht="13">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3095,7 +3349,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" ht="13">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3117,7 +3371,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" ht="13">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3139,7 +3393,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" ht="13">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3161,7 +3415,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" ht="13">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3183,7 +3437,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" ht="13">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3205,7 +3459,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" ht="13">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3227,7 +3481,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" ht="13">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3249,7 +3503,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" ht="13">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3271,7 +3525,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" ht="13">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3293,7 +3547,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" ht="13">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3315,7 +3569,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" ht="13">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3337,7 +3591,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" ht="13">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3359,7 +3613,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" ht="13">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3381,7 +3635,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" ht="13">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3403,7 +3657,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" ht="13">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3425,7 +3679,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" ht="13">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3447,7 +3701,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" ht="13">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3469,7 +3723,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" ht="13">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3491,7 +3745,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" ht="13">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3513,7 +3767,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" ht="13">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3535,7 +3789,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" ht="13">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3557,7 +3811,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" ht="13">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3579,7 +3833,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" ht="13">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3601,7 +3855,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" ht="13">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3623,7 +3877,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" ht="13">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3645,7 +3899,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" ht="13">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3671,286 +3925,293 @@
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="27.38"/>
-    <col customWidth="1" min="3" max="3" width="25.63"/>
-    <col customWidth="1" min="4" max="4" width="25.38"/>
-    <col customWidth="1" min="6" max="6" width="25.88"/>
-    <col customWidth="1" min="7" max="7" width="23.25"/>
-    <col customWidth="1" min="8" max="8" width="25.0"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="23" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="E4" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="23" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="s">
+      <c r="B5" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="28" t="s">
+      <c r="D5" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="G5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="30" t="s">
+      <c r="D6" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="28" t="s">
+      <c r="E6" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D7" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="28" t="s">
+      <c r="E7" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="B8" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="C8" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="23" t="s">
+      <c r="D8" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="G8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="18" t="s">
+      <c r="D9" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="23" t="s">
+      <c r="E9" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D10" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>25</v>
+      <c r="E10" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3959,757 +4220,762 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="15.13"/>
-    <col customWidth="1" min="4" max="4" width="21.75"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="24.25"/>
-    <col customWidth="1" min="7" max="19" width="15.13"/>
+    <col min="1" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" customWidth="1"/>
+    <col min="7" max="19" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="56">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="56" t="s">
+      <c r="F2" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="56" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C3" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D3" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="E3" s="41" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="56" t="s">
+      <c r="F3" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="57" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C4" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="D4" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="E4" s="41" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="56" t="s">
+      <c r="F4" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="57" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="40">
+        <v>2</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="C5" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="D5" s="41" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="56">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="56" t="s">
+      <c r="F5" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="56" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C6" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D6" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="E6" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="6">
-      <c r="C6" s="56" t="s">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C7" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D7" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="F6" s="57" t="s">
+      <c r="E7" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="41" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" s="56" t="s">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="40">
+        <v>3</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="C8" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="F7" s="57" t="s">
+      <c r="D8" s="41" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="56">
-        <v>3.0</v>
-      </c>
-      <c r="B8" s="56" t="s">
+      <c r="F8" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="56" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C9" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D9" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="E9" s="41" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="56" t="s">
+      <c r="F9" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="D9" s="57" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C10" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="D10" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="E10" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="41" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10">
-      <c r="C10" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>275</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="15.13"/>
-    <col customWidth="1" min="4" max="4" width="22.63"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="19.25"/>
-    <col customWidth="1" min="7" max="19" width="15.13"/>
+    <col min="1" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="19" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="55" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="F1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="55" t="s">
+      <c r="G1" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="56">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="56" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="56" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C3" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D3" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="E3" s="41" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="56" t="s">
+      <c r="F3" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="D3" s="57" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C4" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="D4" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="E4" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="41" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="56" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>286</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="15.13"/>
-    <col customWidth="1" min="4" max="4" width="20.88"/>
-    <col customWidth="1" min="5" max="20" width="15.13"/>
+    <col min="1" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="20" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C3" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C4" s="40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="40">
+        <v>2</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="56">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>288</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" s="57" t="s">
+      <c r="F5" s="41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C6" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C7" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="40">
+        <v>3</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C9" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C10" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A11" s="40">
+        <v>4</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C12" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C13" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A14" s="40">
+        <v>5</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="F3" s="57" t="s">
+      <c r="C14" s="40" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="56" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="56">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>248</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="56">
-        <v>3.0</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="56" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>263</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="56">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="56" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="56">
-        <v>5.0</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="56" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="56" t="s">
-        <v>296</v>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C15" s="40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C16" s="40" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="21.63"/>
-    <col customWidth="1" min="7" max="20" width="15.13"/>
+    <col min="1" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="20" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="55" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="F1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="55" t="s">
+      <c r="G1" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="56">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="56" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="56" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="40">
+        <v>2</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="C3" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="D3" s="41" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="56">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="56" t="s">
+      <c r="F3" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="C3" s="56" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C4" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D4" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="E4" s="40" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="56" t="s">
+      <c r="F4" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="D4" s="56" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C5" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="D5" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="E5" s="40" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="56" t="s">
+      <c r="F5" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="D5" s="56" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C6" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="D6" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="E6" s="40" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="56" t="s">
+      <c r="F6" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="56" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A7" s="40">
+        <v>3</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="C7" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="D7" s="40" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="56">
-        <v>3.0</v>
-      </c>
-      <c r="B7" s="56" t="s">
+      <c r="E7" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="F7" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="D7" s="56" t="s">
-        <v>319</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>320</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>321</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.13"/>
-    <col customWidth="1" min="2" max="2" width="22.25"/>
-    <col customWidth="1" min="3" max="3" width="33.25"/>
-    <col customWidth="1" min="4" max="4" width="39.13"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="36.0"/>
-    <col customWidth="1" min="7" max="7" width="36.88"/>
-    <col customWidth="1" min="8" max="8" width="29.63"/>
-    <col customWidth="1" min="9" max="23" width="15.13"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" customWidth="1"/>
+    <col min="9" max="23" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+    </row>
+    <row r="2" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="B2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="G2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22" t="s">
-        <v>25</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4726,1118 +4992,1138 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:23">
+      <c r="A3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="G3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="s">
+      <c r="E4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="G4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="D5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="E5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+    </row>
+    <row r="6" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+    </row>
+    <row r="7" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="E7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="G7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="28" t="s">
+      <c r="H7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+    </row>
+    <row r="8" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="30" t="s">
+      <c r="D8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="28" t="s">
+      <c r="E8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="F8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="B9" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="C9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="D9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="26" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="24" t="s">
+      <c r="E16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="26"/>
+      <c r="I19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="E21" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+    </row>
+    <row r="22" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A22" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+    </row>
+    <row r="23" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A23" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+    </row>
+    <row r="24" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A24" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+    </row>
+    <row r="25" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A25" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="33" t="s">
+      <c r="E25" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+    </row>
+    <row r="26" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A26" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+    </row>
+    <row r="27" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A27" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+    </row>
+    <row r="28" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="18" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="47"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="47"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="47"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="47"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="48"/>
+      <c r="I28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+    </row>
+    <row r="29" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A29" s="33"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+    </row>
+    <row r="30" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A30" s="33"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+    </row>
+    <row r="31" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A31" s="33"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+    </row>
+    <row r="32" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A32" s="33"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+    </row>
+    <row r="33" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A33" s="34"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5861,8 +6147,8 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="48"/>
+    <row r="34" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A34" s="34"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5886,8 +6172,8 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="48"/>
+    <row r="35" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A35" s="34"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5911,8 +6197,8 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="48"/>
+    <row r="36" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A36" s="34"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5936,8 +6222,8 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="48"/>
+    <row r="37" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A37" s="34"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5961,8 +6247,8 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="48"/>
+    <row r="38" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A38" s="34"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5986,8 +6272,8 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="48"/>
+    <row r="39" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A39" s="34"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -6011,8 +6297,8 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="48"/>
+    <row r="40" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A40" s="34"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -6036,8 +6322,8 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="48"/>
+    <row r="41" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A41" s="34"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -6061,8 +6347,8 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="48"/>
+    <row r="42" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A42" s="34"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -6086,8 +6372,8 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="48"/>
+    <row r="43" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A43" s="34"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -6111,8 +6397,8 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="48"/>
+    <row r="44" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A44" s="34"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -6136,8 +6422,8 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="48"/>
+    <row r="45" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A45" s="34"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -6161,8 +6447,8 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="48"/>
+    <row r="46" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A46" s="34"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6186,8 +6472,8 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="48"/>
+    <row r="47" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A47" s="34"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6211,8 +6497,8 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="48"/>
+    <row r="48" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A48" s="34"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6236,8 +6522,8 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="48"/>
+    <row r="49" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A49" s="34"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6261,8 +6547,8 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" s="48"/>
+    <row r="50" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A50" s="34"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6286,8 +6572,8 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="48"/>
+    <row r="51" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A51" s="34"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6311,8 +6597,8 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="48"/>
+    <row r="52" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A52" s="34"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6336,8 +6622,8 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="48"/>
+    <row r="53" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A53" s="34"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6361,8 +6647,8 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="48"/>
+    <row r="54" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A54" s="34"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6386,8 +6672,8 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="48"/>
+    <row r="55" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A55" s="34"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6411,8 +6697,8 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="48"/>
+    <row r="56" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A56" s="34"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6436,8 +6722,8 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="48"/>
+    <row r="57" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A57" s="34"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6461,8 +6747,8 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="48"/>
+    <row r="58" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A58" s="34"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6486,8 +6772,8 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59">
-      <c r="A59" s="48"/>
+    <row r="59" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A59" s="34"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6511,8 +6797,8 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60">
-      <c r="A60" s="48"/>
+    <row r="60" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A60" s="34"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6536,8 +6822,8 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="48"/>
+    <row r="61" spans="1:23" ht="13">
+      <c r="A61" s="34"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6561,8 +6847,8 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62">
-      <c r="A62" s="48"/>
+    <row r="62" spans="1:23" ht="13">
+      <c r="A62" s="34"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6586,8 +6872,8 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="48"/>
+    <row r="63" spans="1:23" ht="13">
+      <c r="A63" s="34"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6611,8 +6897,8 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="48"/>
+    <row r="64" spans="1:23" ht="13">
+      <c r="A64" s="34"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6636,8 +6922,8 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65">
-      <c r="A65" s="48"/>
+    <row r="65" spans="1:23" ht="13">
+      <c r="A65" s="34"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -6661,8 +6947,8 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66">
-      <c r="A66" s="48"/>
+    <row r="66" spans="1:23" ht="13">
+      <c r="A66" s="34"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -6686,8 +6972,8 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67">
-      <c r="A67" s="48"/>
+    <row r="67" spans="1:23" ht="13">
+      <c r="A67" s="34"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -6711,8 +6997,8 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68">
-      <c r="A68" s="48"/>
+    <row r="68" spans="1:23" ht="13">
+      <c r="A68" s="34"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -6736,8 +7022,8 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69">
-      <c r="A69" s="48"/>
+    <row r="69" spans="1:23" ht="13">
+      <c r="A69" s="34"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -6761,8 +7047,8 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70">
-      <c r="A70" s="48"/>
+    <row r="70" spans="1:23" ht="13">
+      <c r="A70" s="34"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -6786,8 +7072,8 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71">
-      <c r="A71" s="48"/>
+    <row r="71" spans="1:23" ht="13">
+      <c r="A71" s="34"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -6811,8 +7097,8 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72">
-      <c r="A72" s="48"/>
+    <row r="72" spans="1:23" ht="13">
+      <c r="A72" s="34"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -6836,8 +7122,8 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73">
-      <c r="A73" s="48"/>
+    <row r="73" spans="1:23" ht="13">
+      <c r="A73" s="34"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -6861,8 +7147,8 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74">
-      <c r="A74" s="48"/>
+    <row r="74" spans="1:23" ht="13">
+      <c r="A74" s="34"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -6886,8 +7172,8 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75">
-      <c r="A75" s="48"/>
+    <row r="75" spans="1:23" ht="13">
+      <c r="A75" s="34"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -6911,8 +7197,8 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76">
-      <c r="A76" s="48"/>
+    <row r="76" spans="1:23" ht="13">
+      <c r="A76" s="34"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -6936,8 +7222,8 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77">
-      <c r="A77" s="48"/>
+    <row r="77" spans="1:23" ht="13">
+      <c r="A77" s="34"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -6961,8 +7247,8 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78">
-      <c r="A78" s="48"/>
+    <row r="78" spans="1:23" ht="13">
+      <c r="A78" s="34"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -6986,8 +7272,8 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79">
-      <c r="A79" s="48"/>
+    <row r="79" spans="1:23" ht="13">
+      <c r="A79" s="34"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -7011,8 +7297,8 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80">
-      <c r="A80" s="48"/>
+    <row r="80" spans="1:23" ht="13">
+      <c r="A80" s="34"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -7036,8 +7322,8 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81">
-      <c r="A81" s="48"/>
+    <row r="81" spans="1:23" ht="13">
+      <c r="A81" s="34"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -7061,8 +7347,8 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82">
-      <c r="A82" s="48"/>
+    <row r="82" spans="1:23" ht="13">
+      <c r="A82" s="34"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -7086,8 +7372,8 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83">
-      <c r="A83" s="48"/>
+    <row r="83" spans="1:23" ht="13">
+      <c r="A83" s="34"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -7111,8 +7397,8 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84">
-      <c r="A84" s="48"/>
+    <row r="84" spans="1:23" ht="13">
+      <c r="A84" s="34"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -7136,8 +7422,8 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85">
-      <c r="A85" s="48"/>
+    <row r="85" spans="1:23" ht="13">
+      <c r="A85" s="34"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -7161,8 +7447,8 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86">
-      <c r="A86" s="48"/>
+    <row r="86" spans="1:23" ht="13">
+      <c r="A86" s="34"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -7186,8 +7472,8 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87">
-      <c r="A87" s="48"/>
+    <row r="87" spans="1:23" ht="13">
+      <c r="A87" s="34"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -7211,8 +7497,8 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88">
-      <c r="A88" s="48"/>
+    <row r="88" spans="1:23" ht="13">
+      <c r="A88" s="34"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -7236,8 +7522,8 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89">
-      <c r="A89" s="48"/>
+    <row r="89" spans="1:23" ht="13">
+      <c r="A89" s="34"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -7261,8 +7547,8 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90">
-      <c r="A90" s="48"/>
+    <row r="90" spans="1:23" ht="13">
+      <c r="A90" s="34"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -7286,8 +7572,8 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91">
-      <c r="A91" s="48"/>
+    <row r="91" spans="1:23" ht="13">
+      <c r="A91" s="34"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -7311,8 +7597,8 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92">
-      <c r="A92" s="48"/>
+    <row r="92" spans="1:23" ht="13">
+      <c r="A92" s="34"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -7336,8 +7622,8 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93">
-      <c r="A93" s="48"/>
+    <row r="93" spans="1:23" ht="13">
+      <c r="A93" s="34"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -7361,8 +7647,8 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94">
-      <c r="A94" s="48"/>
+    <row r="94" spans="1:23" ht="13">
+      <c r="A94" s="34"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -7386,8 +7672,8 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95">
-      <c r="A95" s="48"/>
+    <row r="95" spans="1:23" ht="13">
+      <c r="A95" s="34"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -7411,8 +7697,8 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96">
-      <c r="A96" s="48"/>
+    <row r="96" spans="1:23" ht="13">
+      <c r="A96" s="34"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -7436,8 +7722,8 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97">
-      <c r="A97" s="48"/>
+    <row r="97" spans="1:23" ht="13">
+      <c r="A97" s="34"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -7461,8 +7747,8 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98">
-      <c r="A98" s="48"/>
+    <row r="98" spans="1:23" ht="13">
+      <c r="A98" s="34"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7486,8 +7772,8 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99">
-      <c r="A99" s="48"/>
+    <row r="99" spans="1:23" ht="13">
+      <c r="A99" s="34"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -7511,8 +7797,8 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100">
-      <c r="A100" s="48"/>
+    <row r="100" spans="1:23" ht="13">
+      <c r="A100" s="34"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -7538,169 +7824,173 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B28"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="3" width="25.63"/>
-    <col customWidth="1" min="4" max="4" width="37.75"/>
-    <col customWidth="1" min="5" max="5" width="14.0"/>
-    <col customWidth="1" min="6" max="6" width="35.25"/>
-    <col customWidth="1" min="7" max="7" width="33.13"/>
-    <col customWidth="1" min="8" max="8" width="22.5"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="23" t="s">
+      <c r="D2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="G2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="18" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="D4" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="s">
+      <c r="E4" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="F4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="D5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="48"/>
+      <c r="F5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A6" s="34"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7710,8 +8000,8 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="48"/>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A7" s="34"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -7721,8 +8011,8 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="48"/>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A8" s="34"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -7732,8 +8022,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="48"/>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A9" s="34"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -7743,8 +8033,8 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="48"/>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A10" s="34"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7758,612 +8048,633 @@
   <mergeCells count="1">
     <mergeCell ref="B2:B5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="3" width="25.63"/>
-    <col customWidth="1" min="4" max="4" width="37.75"/>
-    <col customWidth="1" min="5" max="5" width="14.0"/>
-    <col customWidth="1" min="6" max="6" width="35.25"/>
-    <col customWidth="1" min="7" max="7" width="33.13"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="24" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" s="24" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="49"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="50"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="33" t="s">
+      <c r="E21" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A22" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A23" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="36"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A24" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="36"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A25" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="24" t="s">
+      <c r="E25" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A26" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A27" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="49"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="50"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="51"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="29" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="50"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="50"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="49"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="47"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="47"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="47"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="47"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="48"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="35"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A29" s="33"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A30" s="33"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A31" s="33"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A32" s="33"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A33" s="34"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -8372,8 +8683,8 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="48"/>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A34" s="34"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -8382,8 +8693,8 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="48"/>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A35" s="34"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -8392,8 +8703,8 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="48"/>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A36" s="34"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -8402,8 +8713,8 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="48"/>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A37" s="34"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -8412,8 +8723,8 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="48"/>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A38" s="34"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -8422,8 +8733,8 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="48"/>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A39" s="34"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -8432,8 +8743,8 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="48"/>
+    <row r="40" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A40" s="34"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -8442,8 +8753,8 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="48"/>
+    <row r="41" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A41" s="34"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -8452,8 +8763,8 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="48"/>
+    <row r="42" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A42" s="34"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -8464,706 +8775,723 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B28"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.63"/>
-    <col customWidth="1" min="2" max="2" width="20.63"/>
-    <col customWidth="1" min="3" max="3" width="26.75"/>
-    <col customWidth="1" min="4" max="4" width="31.38"/>
-    <col customWidth="1" min="6" max="6" width="30.0"/>
-    <col customWidth="1" min="7" max="7" width="20.88"/>
-    <col customWidth="1" min="8" max="8" width="19.38"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="23" t="s">
+      <c r="D2" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="23" t="s">
+      <c r="F4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="24" t="s">
+      <c r="D5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="47"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="E5" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.38"/>
-    <col customWidth="1" min="2" max="2" width="18.13"/>
-    <col customWidth="1" min="3" max="3" width="23.5"/>
-    <col customWidth="1" min="4" max="4" width="30.5"/>
-    <col customWidth="1" min="6" max="6" width="28.5"/>
-    <col customWidth="1" min="7" max="7" width="27.88"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="23" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="G2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
+      <c r="D3" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="23" t="s">
+      <c r="E3" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="F3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="D4" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="s">
+      <c r="E4" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>25</v>
+      <c r="F4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.0"/>
-    <col customWidth="1" min="2" max="2" width="20.63"/>
-    <col customWidth="1" min="3" max="3" width="26.5"/>
-    <col customWidth="1" min="4" max="4" width="29.25"/>
-    <col customWidth="1" min="6" max="6" width="21.25"/>
-    <col customWidth="1" min="7" max="7" width="23.25"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="23" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>25</v>
+      <c r="F4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.88"/>
-    <col customWidth="1" min="2" max="2" width="18.38"/>
-    <col customWidth="1" min="3" max="3" width="26.38"/>
-    <col customWidth="1" min="4" max="4" width="25.25"/>
-    <col customWidth="1" min="6" max="6" width="23.75"/>
-    <col customWidth="1" min="7" max="7" width="20.38"/>
-    <col customWidth="1" min="8" max="8" width="24.75"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="23" t="s">
+      <c r="D2" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="23" t="s">
+      <c r="F4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.38"/>
-    <col customWidth="1" min="3" max="3" width="25.13"/>
-    <col customWidth="1" min="4" max="4" width="25.38"/>
-    <col customWidth="1" min="6" max="6" width="19.75"/>
-    <col customWidth="1" min="7" max="7" width="23.25"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="23" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>25</v>
+      <c r="F4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testcase Live Project__UnitTest_v2.xlsx
+++ b/Testcase Live Project__UnitTest_v2.xlsx
@@ -8,32 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doanthithuy/Documents/Live Poroject Guru99/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3C2AC-C8D4-4240-857D-D909E026D1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22076878-443A-4249-A89C-6A31CF89499D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
     <sheet name="New Customer" sheetId="2" r:id="rId2"/>
     <sheet name="Edit Customer" sheetId="3" r:id="rId3"/>
-    <sheet name="Copy of Edit Customer" sheetId="4" r:id="rId4"/>
-    <sheet name="New Account" sheetId="5" r:id="rId5"/>
-    <sheet name="Edit Account" sheetId="6" r:id="rId6"/>
-    <sheet name="Delete Account" sheetId="7" r:id="rId7"/>
-    <sheet name="Delete Customer" sheetId="8" r:id="rId8"/>
-    <sheet name="Mini Statement" sheetId="9" r:id="rId9"/>
-    <sheet name="Customize Statement" sheetId="10" r:id="rId10"/>
-    <sheet name="FundTransfer" sheetId="11" state="hidden" r:id="rId11"/>
-    <sheet name="BalenceEnquiry" sheetId="12" state="hidden" r:id="rId12"/>
-    <sheet name="Inter Bank Fund  Transfer" sheetId="13" state="hidden" r:id="rId13"/>
-    <sheet name="Change  password" sheetId="14" state="hidden" r:id="rId14"/>
+    <sheet name="New Account" sheetId="5" r:id="rId4"/>
+    <sheet name="Edit Account" sheetId="6" r:id="rId5"/>
+    <sheet name="Delete Account" sheetId="7" r:id="rId6"/>
+    <sheet name="Delete Customer" sheetId="8" r:id="rId7"/>
+    <sheet name="Mini Statement" sheetId="9" r:id="rId8"/>
+    <sheet name="Customize Statement" sheetId="10" r:id="rId9"/>
+    <sheet name="FundTransfer" sheetId="11" state="hidden" r:id="rId10"/>
+    <sheet name="BalenceEnquiry" sheetId="12" state="hidden" r:id="rId11"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="13" state="hidden" r:id="rId12"/>
+    <sheet name="Change  password" sheetId="14" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="292">
   <si>
     <t>NOTE: To enter your own test cases
 1) Go to File &gt; Make a Copy
@@ -516,93 +515,6 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>EC5</t>
-  </si>
-  <si>
-    <t>EC6</t>
-  </si>
-  <si>
-    <t>EC7</t>
-  </si>
-  <si>
-    <t>EC8</t>
-  </si>
-  <si>
-    <t>EC9</t>
-  </si>
-  <si>
-    <t>An error message "City field must not be blank" must shown</t>
-  </si>
-  <si>
-    <t>EC10</t>
-  </si>
-  <si>
-    <t>EC11</t>
-  </si>
-  <si>
-    <t>EC12</t>
-  </si>
-  <si>
-    <t>EC13</t>
-  </si>
-  <si>
-    <t>An error message "State Field must not be blank" must shown</t>
-  </si>
-  <si>
-    <t>EC14</t>
-  </si>
-  <si>
-    <t>EC15</t>
-  </si>
-  <si>
-    <t>EC16</t>
-  </si>
-  <si>
-    <t>EC17</t>
-  </si>
-  <si>
-    <t>An error message "Pin Code must not be blank" must shown</t>
-  </si>
-  <si>
-    <t>EC18</t>
-  </si>
-  <si>
-    <t>EC19</t>
-  </si>
-  <si>
-    <t>EC20</t>
-  </si>
-  <si>
-    <t>EC21</t>
-  </si>
-  <si>
-    <t>EC22</t>
-  </si>
-  <si>
-    <t>EC23</t>
-  </si>
-  <si>
-    <t>EC24</t>
-  </si>
-  <si>
-    <t>EC25</t>
-  </si>
-  <si>
-    <t>An error message "Email ID must not be blank" must shown</t>
-  </si>
-  <si>
-    <t>EC26</t>
-  </si>
-  <si>
-    <t>doanthuy@gmail@gmail@gmail.com</t>
-  </si>
-  <si>
-    <t>An error message "Email ID is not valid" must shown</t>
-  </si>
-  <si>
-    <t>EC27</t>
-  </si>
-  <si>
     <t>NA1</t>
   </si>
   <si>
@@ -1053,13 +965,16 @@
   </si>
   <si>
     <t>Đoàn Thị Thuý</t>
+  </si>
+  <si>
+    <t>As Expected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1087,21 +1002,25 @@
       <b/>
       <sz val="14"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1109,18 +1028,14 @@
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1173,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1232,11 +1147,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1264,77 +1194,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1342,25 +1206,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1369,20 +1227,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1703,7 +1624,7 @@
   </sheetPr>
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1741,12 +1662,12 @@
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1886,10 +1807,10 @@
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="48">
+      <c r="C8" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="17">
         <v>44858</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1916,10 +1837,10 @@
       <c r="B9" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="D9" s="48">
+      <c r="C9" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="17">
         <v>44880</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -3930,301 +3851,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4243,164 +3869,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C3" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C4" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C6" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C7" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="14">
+        <v>3</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C9" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="40">
-        <v>1</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="F9" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="40" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C10" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D10" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="E10" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C3" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C4" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="40">
-        <v>2</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C6" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C7" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="40">
-        <v>3</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C9" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C10" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4408,7 +4034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4427,74 +4053,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="40">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>276</v>
+      <c r="B2" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C3" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>280</v>
+      <c r="C3" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C4" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>283</v>
+      <c r="C4" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4502,7 +4128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4519,222 +4145,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C3" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C4" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C6" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C7" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="14">
+        <v>3</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C9" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C10" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A11" s="14">
+        <v>4</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C12" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="40">
-        <v>1</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C3" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C4" s="40" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="40">
-        <v>2</v>
-      </c>
-      <c r="B5" s="40" t="s">
+      <c r="F12" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="40" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C13" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D13" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="E13" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C6" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C7" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="40">
-        <v>3</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C9" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C10" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A11" s="40">
-        <v>4</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="40" t="s">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A14" s="14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="C14" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="F11" s="41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C12" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C13" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A14" s="40">
-        <v>5</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C15" s="40" t="s">
-        <v>293</v>
+      <c r="C15" s="14" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C16" s="40" t="s">
-        <v>293</v>
+      <c r="C16" s="14" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4742,7 +4368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4759,125 +4385,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="40">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>297</v>
+      <c r="B2" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="40">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>301</v>
+      <c r="B3" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C4" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>305</v>
+      <c r="C4" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C5" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>309</v>
+      <c r="C5" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C6" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>313</v>
+      <c r="C6" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="40">
+      <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>318</v>
+      <c r="B7" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4892,89 +4518,90 @@
   </sheetPr>
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="36.83203125" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" customWidth="1"/>
-    <col min="9" max="23" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="23" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:23" ht="19">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-    </row>
-    <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+    </row>
+    <row r="2" spans="1:23" ht="57">
+      <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="1"/>
@@ -4992,1138 +4619,1138 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:23" ht="57">
+      <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="12" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+    </row>
+    <row r="4" spans="1:23" ht="57">
+      <c r="A4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15" t="s">
+      <c r="H4" s="25"/>
+      <c r="I4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="12" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" ht="38">
+      <c r="A5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" ht="57">
+      <c r="A6" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="1:23" ht="38">
+      <c r="A7" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="G7" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-    </row>
-    <row r="6" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="19" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="1:23" ht="57">
+      <c r="A8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="21" t="s">
+      <c r="H8" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-    </row>
-    <row r="7" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+    </row>
+    <row r="9" spans="1:23" ht="57">
+      <c r="A9" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" ht="38">
+      <c r="A10" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="1:23" ht="38">
+      <c r="A11" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" ht="38">
+      <c r="A12" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:23" ht="38">
+      <c r="A13" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" ht="57">
+      <c r="A14" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:23" ht="57">
+      <c r="A15" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:23" ht="38">
+      <c r="A16" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="1:23" ht="38">
+      <c r="A17" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="38"/>
+      <c r="I17" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" ht="38">
+      <c r="A18" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="38"/>
+      <c r="I18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="1:23" ht="57">
+      <c r="A19" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+    </row>
+    <row r="20" spans="1:23" ht="57">
+      <c r="A20" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+    </row>
+    <row r="21" spans="1:23" ht="38">
+      <c r="A21" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+    </row>
+    <row r="22" spans="1:23" ht="57">
+      <c r="A22" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+    </row>
+    <row r="23" spans="1:23" ht="57">
+      <c r="A23" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+    </row>
+    <row r="24" spans="1:23" ht="38">
+      <c r="A24" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+    </row>
+    <row r="25" spans="1:23" ht="38">
+      <c r="A25" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="21" t="s">
+      <c r="H25" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-    </row>
-    <row r="8" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="19" t="s">
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+    </row>
+    <row r="26" spans="1:23" ht="57">
+      <c r="A26" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+    </row>
+    <row r="27" spans="1:23" ht="57">
+      <c r="A27" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+    </row>
+    <row r="28" spans="1:23" ht="38">
+      <c r="A28" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="21" t="s">
+      <c r="H28" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I28" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-    </row>
-    <row r="22" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A22" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-    </row>
-    <row r="23" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A23" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-    </row>
-    <row r="24" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-    </row>
-    <row r="25" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A25" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-    </row>
-    <row r="26" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-    </row>
-    <row r="27" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-    </row>
-    <row r="28" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
     </row>
     <row r="29" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
     </row>
     <row r="30" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
     </row>
     <row r="31" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A31" s="33"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
     </row>
     <row r="32" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A32" s="33"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
     </row>
     <row r="33" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A33" s="34"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -6148,7 +5775,7 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A34" s="34"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -6173,7 +5800,7 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A35" s="34"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -6198,7 +5825,7 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A36" s="34"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -6223,7 +5850,7 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A37" s="34"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -6248,7 +5875,7 @@
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A38" s="34"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -6273,7 +5900,7 @@
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A39" s="34"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -6298,7 +5925,7 @@
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A40" s="34"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -6323,7 +5950,7 @@
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A41" s="34"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -6348,7 +5975,7 @@
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A42" s="34"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -6373,7 +6000,7 @@
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A43" s="34"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -6398,7 +6025,7 @@
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A44" s="34"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -6423,7 +6050,7 @@
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A45" s="34"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -6448,7 +6075,7 @@
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A46" s="34"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6473,7 +6100,7 @@
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A47" s="34"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6498,7 +6125,7 @@
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A48" s="34"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6523,7 +6150,7 @@
       <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A49" s="34"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6548,7 +6175,7 @@
       <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A50" s="34"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6573,7 +6200,7 @@
       <c r="W50" s="1"/>
     </row>
     <row r="51" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A51" s="34"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6598,7 +6225,7 @@
       <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A52" s="34"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6623,7 +6250,7 @@
       <c r="W52" s="1"/>
     </row>
     <row r="53" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A53" s="34"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6648,7 +6275,7 @@
       <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A54" s="34"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6673,7 +6300,7 @@
       <c r="W54" s="1"/>
     </row>
     <row r="55" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A55" s="34"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6698,7 +6325,7 @@
       <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A56" s="34"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6723,7 +6350,7 @@
       <c r="W56" s="1"/>
     </row>
     <row r="57" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A57" s="34"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6748,7 +6375,7 @@
       <c r="W57" s="1"/>
     </row>
     <row r="58" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A58" s="34"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6773,7 +6400,7 @@
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A59" s="34"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6798,7 +6425,7 @@
       <c r="W59" s="1"/>
     </row>
     <row r="60" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A60" s="34"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6823,7 +6450,7 @@
       <c r="W60" s="1"/>
     </row>
     <row r="61" spans="1:23" ht="13">
-      <c r="A61" s="34"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6848,7 +6475,7 @@
       <c r="W61" s="1"/>
     </row>
     <row r="62" spans="1:23" ht="13">
-      <c r="A62" s="34"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6873,7 +6500,7 @@
       <c r="W62" s="1"/>
     </row>
     <row r="63" spans="1:23" ht="13">
-      <c r="A63" s="34"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6898,7 +6525,7 @@
       <c r="W63" s="1"/>
     </row>
     <row r="64" spans="1:23" ht="13">
-      <c r="A64" s="34"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6923,7 +6550,7 @@
       <c r="W64" s="1"/>
     </row>
     <row r="65" spans="1:23" ht="13">
-      <c r="A65" s="34"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -6948,7 +6575,7 @@
       <c r="W65" s="1"/>
     </row>
     <row r="66" spans="1:23" ht="13">
-      <c r="A66" s="34"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -6973,7 +6600,7 @@
       <c r="W66" s="1"/>
     </row>
     <row r="67" spans="1:23" ht="13">
-      <c r="A67" s="34"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -6998,7 +6625,7 @@
       <c r="W67" s="1"/>
     </row>
     <row r="68" spans="1:23" ht="13">
-      <c r="A68" s="34"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -7023,7 +6650,7 @@
       <c r="W68" s="1"/>
     </row>
     <row r="69" spans="1:23" ht="13">
-      <c r="A69" s="34"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -7048,7 +6675,7 @@
       <c r="W69" s="1"/>
     </row>
     <row r="70" spans="1:23" ht="13">
-      <c r="A70" s="34"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -7073,7 +6700,7 @@
       <c r="W70" s="1"/>
     </row>
     <row r="71" spans="1:23" ht="13">
-      <c r="A71" s="34"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -7098,7 +6725,7 @@
       <c r="W71" s="1"/>
     </row>
     <row r="72" spans="1:23" ht="13">
-      <c r="A72" s="34"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -7123,7 +6750,7 @@
       <c r="W72" s="1"/>
     </row>
     <row r="73" spans="1:23" ht="13">
-      <c r="A73" s="34"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -7148,7 +6775,7 @@
       <c r="W73" s="1"/>
     </row>
     <row r="74" spans="1:23" ht="13">
-      <c r="A74" s="34"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -7173,7 +6800,7 @@
       <c r="W74" s="1"/>
     </row>
     <row r="75" spans="1:23" ht="13">
-      <c r="A75" s="34"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -7198,7 +6825,7 @@
       <c r="W75" s="1"/>
     </row>
     <row r="76" spans="1:23" ht="13">
-      <c r="A76" s="34"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -7223,7 +6850,7 @@
       <c r="W76" s="1"/>
     </row>
     <row r="77" spans="1:23" ht="13">
-      <c r="A77" s="34"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -7248,7 +6875,7 @@
       <c r="W77" s="1"/>
     </row>
     <row r="78" spans="1:23" ht="13">
-      <c r="A78" s="34"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -7273,7 +6900,7 @@
       <c r="W78" s="1"/>
     </row>
     <row r="79" spans="1:23" ht="13">
-      <c r="A79" s="34"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -7298,7 +6925,7 @@
       <c r="W79" s="1"/>
     </row>
     <row r="80" spans="1:23" ht="13">
-      <c r="A80" s="34"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -7323,7 +6950,7 @@
       <c r="W80" s="1"/>
     </row>
     <row r="81" spans="1:23" ht="13">
-      <c r="A81" s="34"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -7348,7 +6975,7 @@
       <c r="W81" s="1"/>
     </row>
     <row r="82" spans="1:23" ht="13">
-      <c r="A82" s="34"/>
+      <c r="A82" s="12"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -7373,7 +7000,7 @@
       <c r="W82" s="1"/>
     </row>
     <row r="83" spans="1:23" ht="13">
-      <c r="A83" s="34"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -7398,7 +7025,7 @@
       <c r="W83" s="1"/>
     </row>
     <row r="84" spans="1:23" ht="13">
-      <c r="A84" s="34"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -7423,7 +7050,7 @@
       <c r="W84" s="1"/>
     </row>
     <row r="85" spans="1:23" ht="13">
-      <c r="A85" s="34"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -7448,7 +7075,7 @@
       <c r="W85" s="1"/>
     </row>
     <row r="86" spans="1:23" ht="13">
-      <c r="A86" s="34"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -7473,7 +7100,7 @@
       <c r="W86" s="1"/>
     </row>
     <row r="87" spans="1:23" ht="13">
-      <c r="A87" s="34"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -7498,7 +7125,7 @@
       <c r="W87" s="1"/>
     </row>
     <row r="88" spans="1:23" ht="13">
-      <c r="A88" s="34"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -7523,7 +7150,7 @@
       <c r="W88" s="1"/>
     </row>
     <row r="89" spans="1:23" ht="13">
-      <c r="A89" s="34"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -7548,7 +7175,7 @@
       <c r="W89" s="1"/>
     </row>
     <row r="90" spans="1:23" ht="13">
-      <c r="A90" s="34"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -7573,7 +7200,7 @@
       <c r="W90" s="1"/>
     </row>
     <row r="91" spans="1:23" ht="13">
-      <c r="A91" s="34"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -7598,7 +7225,7 @@
       <c r="W91" s="1"/>
     </row>
     <row r="92" spans="1:23" ht="13">
-      <c r="A92" s="34"/>
+      <c r="A92" s="12"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -7623,7 +7250,7 @@
       <c r="W92" s="1"/>
     </row>
     <row r="93" spans="1:23" ht="13">
-      <c r="A93" s="34"/>
+      <c r="A93" s="12"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -7648,7 +7275,7 @@
       <c r="W93" s="1"/>
     </row>
     <row r="94" spans="1:23" ht="13">
-      <c r="A94" s="34"/>
+      <c r="A94" s="12"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -7673,7 +7300,7 @@
       <c r="W94" s="1"/>
     </row>
     <row r="95" spans="1:23" ht="13">
-      <c r="A95" s="34"/>
+      <c r="A95" s="12"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -7698,7 +7325,7 @@
       <c r="W95" s="1"/>
     </row>
     <row r="96" spans="1:23" ht="13">
-      <c r="A96" s="34"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -7723,7 +7350,7 @@
       <c r="W96" s="1"/>
     </row>
     <row r="97" spans="1:23" ht="13">
-      <c r="A97" s="34"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -7748,7 +7375,7 @@
       <c r="W97" s="1"/>
     </row>
     <row r="98" spans="1:23" ht="13">
-      <c r="A98" s="34"/>
+      <c r="A98" s="12"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7773,7 +7400,7 @@
       <c r="W98" s="1"/>
     </row>
     <row r="99" spans="1:23" ht="13">
-      <c r="A99" s="34"/>
+      <c r="A99" s="12"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -7798,7 +7425,7 @@
       <c r="W99" s="1"/>
     </row>
     <row r="100" spans="1:23" ht="13">
-      <c r="A100" s="34"/>
+      <c r="A100" s="12"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -7843,154 +7470,158 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" customWidth="1"/>
-    <col min="7" max="7" width="33.1640625" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" ht="19">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:9" ht="57">
+      <c r="A2" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:9" ht="57">
+      <c r="A3" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:9" ht="57">
+      <c r="A4" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="32"/>
+      <c r="I4" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:9" ht="57">
+      <c r="A5" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A6" s="34"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8001,7 +7632,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A7" s="34"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -8012,7 +7643,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A8" s="34"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -8023,7 +7654,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A9" s="34"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -8034,7 +7665,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A10" s="34"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -8053,907 +7684,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" customWidth="1"/>
-    <col min="7" max="7" width="33.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="36"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A22" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A23" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="36"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A24" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="36"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A25" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="35"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A31" s="33"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A32" s="33"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A39" s="34"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A41" s="34"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" ht="38">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="1:9" ht="95">
+      <c r="A2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="1:9" ht="57">
+      <c r="A3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="13" t="s">
+    <row r="4" spans="1:9" ht="57">
+      <c r="A4" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="13" t="s">
+    <row r="5" spans="1:9" ht="57">
+      <c r="A5" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8963,120 +7863,253 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="38">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="13" t="s">
+    <row r="2" spans="1:8" ht="76">
+      <c r="A2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="15" t="s">
+    <row r="3" spans="1:8" ht="57">
+      <c r="A3" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="15" t="s">
+    <row r="4" spans="1:8" ht="57">
+      <c r="A4" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="35" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="76">
+      <c r="A2" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="76">
+      <c r="A3" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="76">
+      <c r="A4" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9089,119 +8122,286 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="31" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="95">
+      <c r="A2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="57">
+      <c r="A3" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="76">
+      <c r="A4" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="76">
+      <c r="A5" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="19">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="13" t="s">
+    <row r="2" spans="1:8" ht="76">
+      <c r="A2" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="15" t="s">
+    <row r="3" spans="1:8" ht="76">
+      <c r="A3" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" s="15" t="s">
+    <row r="4" spans="1:8" ht="76">
+      <c r="A4" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9213,284 +8413,301 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" ht="19">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:9" ht="76">
+      <c r="A2" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="57">
+      <c r="A3" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="76">
+      <c r="A4" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="95">
+      <c r="A5" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="76">
+      <c r="A6" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="76">
+      <c r="A7" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="95">
+      <c r="A8" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="G8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
+    <row r="9" spans="1:9" ht="76">
+      <c r="A9" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H9" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I9" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4" s="15" t="s">
+    <row r="10" spans="1:9" ht="76">
+      <c r="A10" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
+      <c r="I10" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
